--- a/data_act/notas_finales.xlsx
+++ b/data_act/notas_finales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>N</t>
   </si>
@@ -175,6 +175,9 @@
     <t>Villenas Córdova Nathaly Melisa</t>
   </si>
   <si>
+    <t>Ana Salet Hidalgo Flores</t>
+  </si>
+  <si>
     <t>gaby.01221@gmail.com</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
   </si>
   <si>
     <t>vegajimena551@gmail.com</t>
+  </si>
+  <si>
+    <t>anitasalet2203@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -799,7 +805,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -855,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -911,7 +917,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1023,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1135,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1247,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1303,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1359,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1415,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1577,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1633,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1689,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1745,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1801,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1857,7 +1863,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1913,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1969,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2025,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2081,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2137,7 +2143,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2193,7 +2199,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2249,7 +2255,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2305,7 +2311,7 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2414,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2441,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2456,10 +2462,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R33">
-        <v>2.75820382759259</v>
+        <v>8.75820382759259</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2470,7 +2476,7 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2526,7 +2532,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2625,6 +2631,62 @@
       </c>
       <c r="R36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0.8807970779778823</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>2.880797077977882</v>
       </c>
     </row>
   </sheetData>

--- a/data_act/notas_finales.xlsx
+++ b/data_act/notas_finales.xlsx
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R2">
-        <v>2.974989197057679</v>
+        <v>6.574989197057679</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -888,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -903,10 +903,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R5">
-        <v>3.75820382759259</v>
+        <v>7.35820382759259</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -959,10 +959,10 @@
         <v>0.8807970779778823</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R6">
-        <v>1.880797077977882</v>
+        <v>5.480797077977883</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1056,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1071,10 +1071,10 @@
         <v>0.6224593312018546</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R8">
-        <v>2.622459331201854</v>
+        <v>4.422459331201854</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1127,10 +1127,10 @@
         <v>0.8807970779778823</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R9">
-        <v>3.384053487157619</v>
+        <v>3.984053487157619</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1295,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1448,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R15">
-        <v>2.75820382759259</v>
+        <v>3.95820382759259</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1793,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1905,10 +1905,10 @@
         <v>0.6224593312018546</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="R23">
-        <v>2.622459331201854</v>
+        <v>6.822459331201855</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1946,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="R24">
-        <v>3.75820382759259</v>
+        <v>7.95820382759259</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>0.6224593312018546</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R26">
-        <v>3.450446498266093</v>
+        <v>5.250446498266093</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2114,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2129,10 +2129,10 @@
         <v>0.75820382759259</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="R27">
-        <v>3.75820382759259</v>
+        <v>9.15820382759259</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2241,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R29">
-        <v>3.85640103125154</v>
+        <v>4.45640103125154</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2282,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="R31">
-        <v>9.827987167064238</v>
+        <v>6.227987167064239</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2447,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2518,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:18">
